--- a/doc/trets2014-tables.xlsx
+++ b/doc/trets2014-tables.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="23895" windowHeight="9210"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
   <si>
     <t>Tables</t>
   </si>
@@ -91,13 +91,22 @@
   </si>
   <si>
     <t>Microblaze (Area)</t>
+  </si>
+  <si>
+    <t>Mmult</t>
+  </si>
+  <si>
+    <t>Idea Cycle Count (Total)</t>
+  </si>
+  <si>
+    <t>Idea Cycle Count (Kernel)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +115,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -301,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -325,12 +341,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,12 +356,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,6 +451,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -458,6 +486,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,31 +662,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="22" width="5.7109375" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
         <v>22</v>
       </c>
@@ -671,7 +700,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
@@ -697,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -710,7 +739,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +752,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -736,107 +765,107 @@
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14" t="s">
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14" t="s">
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="B12" s="15" t="s">
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="S12" s="15" t="s">
+      <c r="S12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="U12" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2"/>
@@ -860,8 +889,8 @@
       <c r="T13" s="3"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="5"/>
@@ -885,8 +914,8 @@
       <c r="T14" s="6"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="8"/>
@@ -910,12 +939,12 @@
       <c r="T15" s="9"/>
       <c r="U15" s="10"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C18" s="19" t="s">
         <v>20</v>
       </c>
@@ -937,7 +966,7 @@
       <c r="M18" s="20"/>
       <c r="N18" s="21"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -955,7 +984,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -973,7 +1002,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -991,7 +1020,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -1009,8 +1038,746 @@
       <c r="M22" s="9"/>
       <c r="N22" s="10"/>
     </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="U26" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="7"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="7"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="10"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="U34" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C35" s="3">
+        <v>785</v>
+      </c>
+      <c r="D35" s="3">
+        <v>710</v>
+      </c>
+      <c r="E35" s="4">
+        <v>166</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2427</v>
+      </c>
+      <c r="G35" s="3">
+        <v>938</v>
+      </c>
+      <c r="H35" s="3">
+        <v>852</v>
+      </c>
+      <c r="I35" s="4">
+        <v>197</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2829</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1091</v>
+      </c>
+      <c r="L35" s="3">
+        <v>994</v>
+      </c>
+      <c r="M35" s="4">
+        <v>228</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2809</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1081</v>
+      </c>
+      <c r="P35" s="3">
+        <v>984</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>228</v>
+      </c>
+      <c r="R35" s="3">
+        <v>2789</v>
+      </c>
+      <c r="S35" s="3">
+        <v>1071</v>
+      </c>
+      <c r="T35" s="3">
+        <v>974</v>
+      </c>
+      <c r="U35" s="4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5">
+        <v>34510</v>
+      </c>
+      <c r="C36" s="6">
+        <v>10012</v>
+      </c>
+      <c r="D36" s="6">
+        <v>8613</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1795</v>
+      </c>
+      <c r="F36" s="6">
+        <v>41423</v>
+      </c>
+      <c r="G36" s="6">
+        <v>11814</v>
+      </c>
+      <c r="H36" s="6">
+        <v>10217</v>
+      </c>
+      <c r="I36" s="7">
+        <v>2144</v>
+      </c>
+      <c r="J36" s="6">
+        <v>48336</v>
+      </c>
+      <c r="K36" s="6">
+        <v>13616</v>
+      </c>
+      <c r="L36" s="6">
+        <v>11821</v>
+      </c>
+      <c r="M36" s="7">
+        <v>2493</v>
+      </c>
+      <c r="N36" s="6">
+        <v>48036</v>
+      </c>
+      <c r="O36" s="6">
+        <v>13517</v>
+      </c>
+      <c r="P36" s="6">
+        <v>11670</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>2443</v>
+      </c>
+      <c r="R36" s="6">
+        <v>47736</v>
+      </c>
+      <c r="S36" s="6">
+        <v>13418</v>
+      </c>
+      <c r="T36" s="6">
+        <v>11519</v>
+      </c>
+      <c r="U36" s="7">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5">
+        <v>29602</v>
+      </c>
+      <c r="C37" s="6">
+        <v>10741</v>
+      </c>
+      <c r="D37" s="6">
+        <v>9130</v>
+      </c>
+      <c r="E37" s="7">
+        <v>9600</v>
+      </c>
+      <c r="F37" s="6">
+        <v>35536</v>
+      </c>
+      <c r="G37" s="6">
+        <v>12809</v>
+      </c>
+      <c r="H37" s="6">
+        <v>10893</v>
+      </c>
+      <c r="I37" s="7">
+        <v>11456</v>
+      </c>
+      <c r="J37" s="6">
+        <v>41470</v>
+      </c>
+      <c r="K37" s="6">
+        <v>14877</v>
+      </c>
+      <c r="L37" s="6">
+        <v>12656</v>
+      </c>
+      <c r="M37" s="7">
+        <v>13312</v>
+      </c>
+      <c r="N37" s="6">
+        <v>41182</v>
+      </c>
+      <c r="O37" s="6">
+        <v>14718</v>
+      </c>
+      <c r="P37" s="6">
+        <v>12559</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>12959</v>
+      </c>
+      <c r="R37" s="6">
+        <v>40894</v>
+      </c>
+      <c r="S37" s="6">
+        <v>14559</v>
+      </c>
+      <c r="T37" s="6">
+        <v>12462</v>
+      </c>
+      <c r="U37" s="7">
+        <v>12606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="8">
+        <v>30067</v>
+      </c>
+      <c r="C38" s="9">
+        <v>5681</v>
+      </c>
+      <c r="D38" s="9">
+        <v>4740</v>
+      </c>
+      <c r="E38" s="10">
+        <v>259</v>
+      </c>
+      <c r="F38" s="9">
+        <v>35973</v>
+      </c>
+      <c r="G38" s="9">
+        <v>6680</v>
+      </c>
+      <c r="H38" s="9">
+        <v>5672</v>
+      </c>
+      <c r="I38" s="10">
+        <v>294</v>
+      </c>
+      <c r="J38" s="9">
+        <v>41879</v>
+      </c>
+      <c r="K38" s="9">
+        <v>7679</v>
+      </c>
+      <c r="L38" s="9">
+        <v>6604</v>
+      </c>
+      <c r="M38" s="10">
+        <v>330</v>
+      </c>
+      <c r="N38" s="9">
+        <v>41694</v>
+      </c>
+      <c r="O38" s="9">
+        <v>7654</v>
+      </c>
+      <c r="P38" s="9">
+        <v>6563</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>330</v>
+      </c>
+      <c r="R38" s="9">
+        <v>41509</v>
+      </c>
+      <c r="S38" s="9">
+        <v>7629</v>
+      </c>
+      <c r="T38" s="9">
+        <v>6522</v>
+      </c>
+      <c r="U38" s="10">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I53" s="22"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="21">
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:U25"/>
     <mergeCell ref="R11:U11"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:H18"/>
@@ -1029,24 +1796,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
